--- a/script_master_data/DED-PDAU_Plantilla_Adopcion IA_v2a.xlsx
+++ b/script_master_data/DED-PDAU_Plantilla_Adopcion IA_v2a.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{151D901A-B3AB-444C-BE33-B5B79B240CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA8B0DC-29BA-4747-B13A-09C5D18924F0}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{151D901A-B3AB-444C-BE33-B5B79B240CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{687256E6-F5F2-41AB-AFB1-F8D382E43528}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AdopcionIA!$B$5:$AR$5</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -646,7 +644,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1962,33 +1960,6 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2003,6 +1974,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2021,6 +2001,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2368,7 +2366,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2430,7 +2428,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2576,7 +2574,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2753,7 +2751,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2903,7 +2901,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776388104"/>
@@ -2985,7 +2983,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3017,7 +3015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776385544"/>
@@ -3082,7 +3080,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3114,7 +3112,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114118151"/>
@@ -3174,7 +3172,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3204,7 +3202,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3280,7 +3278,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3331,7 +3329,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3479,7 +3477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283272200"/>
@@ -3538,7 +3536,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283270152"/>
@@ -3579,7 +3577,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3655,7 +3653,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3669,17 +3667,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No aplica Prompt"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No aplica Prompt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3717,7 +3704,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3807,6 +3794,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No aplica Prompt"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No aplica Prompt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -3815,17 +3823,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="70AD47"/>
@@ -3863,7 +3860,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3953,6 +3950,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -3961,17 +3979,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFD966"/>
@@ -4009,7 +4016,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4099,6 +4106,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4123,17 +4151,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Total de Tareas"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total de Tareas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -4205,6 +4222,27 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Total de Tareas"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total de Tareas</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AAFA-4231-A5C1-836DA4DA0000}"/>
             </c:ext>
@@ -4229,17 +4267,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"% Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4280,7 +4307,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4371,6 +4398,27 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"% Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>% Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4430,7 +4478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1838961159"/>
@@ -4489,7 +4537,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400368647"/>
@@ -4531,7 +4579,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400858119"/>
@@ -4591,7 +4639,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4630,7 +4678,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4660,7 +4708,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4744,7 +4792,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4758,17 +4806,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No aplica Prompt"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No aplica Prompt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4806,7 +4843,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4849,6 +4886,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No aplica Prompt"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No aplica Prompt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -4857,17 +4915,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="70AD47"/>
@@ -4905,7 +4952,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4948,6 +4995,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -4956,17 +5024,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFD966"/>
@@ -5004,7 +5061,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5047,6 +5104,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -5117,7 +5195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="684009991"/>
@@ -5169,7 +5247,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5199,7 +5277,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5275,7 +5353,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5690,7 +5768,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5840,7 +5918,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5990,7 +6068,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -6049,7 +6127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -6091,7 +6169,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -6151,7 +6229,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6181,7 +6259,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6257,7 +6335,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6714,7 +6792,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6879,7 +6957,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7029,7 +7107,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -7088,7 +7166,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -7130,7 +7208,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -7190,7 +7268,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7220,7 +7298,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7296,7 +7374,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7732,7 +7810,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7882,7 +7960,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -7941,7 +8019,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -7983,7 +8061,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -8043,7 +8121,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8073,7 +8151,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8149,7 +8227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8581,7 +8659,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8747,7 +8825,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8897,7 +8975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -8956,7 +9034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -8998,7 +9076,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -9058,7 +9136,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9088,7 +9166,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9164,7 +9242,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9579,7 +9657,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9729,7 +9807,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9879,7 +9957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -9938,7 +10016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -9980,7 +10058,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -10040,7 +10118,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10070,7 +10148,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10146,7 +10224,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10578,7 +10656,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10744,7 +10822,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10894,7 +10972,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -10953,7 +11031,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -10995,7 +11073,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -11055,7 +11133,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11085,7 +11163,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11161,7 +11239,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11576,7 +11654,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11726,7 +11804,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11876,7 +11954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -11935,7 +12013,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -11977,7 +12055,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -12037,7 +12115,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12067,7 +12145,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12143,7 +12221,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12559,7 +12637,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12709,7 +12787,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12859,7 +12937,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -12918,7 +12996,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -12960,7 +13038,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069212168"/>
@@ -13020,7 +13098,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13050,7 +13128,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20360,30 +20438,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BR196"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AQ6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AQ44" sqref="AQ44"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="41" width="9.140625" style="1"/>
-    <col min="42" max="42" width="94.42578125" style="129" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="41" width="9.1796875" style="1"/>
+    <col min="42" max="42" width="94.453125" style="129" customWidth="1"/>
+    <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" ht="12.75" customHeight="1">
+    <row r="1" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J1" s="1">
         <f>SUM(J6:J155)</f>
         <v>6.7600000000000025</v>
@@ -20417,12 +20495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:44" ht="18.75">
+    <row r="2" spans="2:44" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="15.75" thickBot="1">
+    <row r="3" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="79" t="s">
         <v>1</v>
       </c>
@@ -20434,7 +20512,7 @@
       <c r="O3" s="158"/>
       <c r="P3" s="158"/>
     </row>
-    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.75">
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -20486,7 +20564,7 @@
       <c r="AO4" s="6"/>
       <c r="AP4" s="130"/>
     </row>
-    <row r="5" spans="2:44" ht="38.25">
+    <row r="5" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -20617,7 +20695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:44">
+    <row r="6" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
@@ -20688,7 +20766,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="2:44">
+    <row r="7" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
@@ -20759,7 +20837,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="2:44">
+    <row r="8" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
@@ -20830,7 +20908,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="9" spans="2:44">
+    <row r="9" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
@@ -20901,7 +20979,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="10" spans="2:44">
+    <row r="10" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
@@ -20972,7 +21050,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="11" spans="2:44">
+    <row r="11" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
@@ -21043,7 +21121,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="12" spans="2:44">
+    <row r="12" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
@@ -21114,7 +21192,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="13" spans="2:44">
+    <row r="13" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -21185,7 +21263,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="14" spans="2:44">
+    <row r="14" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
@@ -21255,7 +21333,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="15" spans="2:44">
+    <row r="15" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
@@ -21326,7 +21404,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="16" spans="2:44">
+    <row r="16" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
@@ -21397,7 +21475,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="17" spans="2:44">
+    <row r="17" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
@@ -21468,7 +21546,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="18" spans="2:44">
+    <row r="18" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>41</v>
       </c>
@@ -21539,7 +21617,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="19" spans="2:44">
+    <row r="19" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>41</v>
       </c>
@@ -21610,7 +21688,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="20" spans="2:44">
+    <row r="20" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
@@ -21681,7 +21759,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="21" spans="2:44">
+    <row r="21" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
@@ -21751,7 +21829,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="22" spans="2:44">
+    <row r="22" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
@@ -21822,7 +21900,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="23" spans="2:44">
+    <row r="23" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>41</v>
       </c>
@@ -21893,7 +21971,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="24" spans="2:44">
+    <row r="24" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>51</v>
       </c>
@@ -21964,7 +22042,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="25" spans="2:44">
+    <row r="25" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
@@ -22035,7 +22113,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="26" spans="2:44">
+    <row r="26" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>51</v>
       </c>
@@ -22106,7 +22184,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="27" spans="2:44">
+    <row r="27" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>51</v>
       </c>
@@ -22177,7 +22255,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="28" spans="2:44">
+    <row r="28" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>57</v>
       </c>
@@ -22258,7 +22336,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="29" spans="2:44">
+    <row r="29" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>57</v>
       </c>
@@ -22339,7 +22417,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="30" spans="2:44">
+    <row r="30" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
         <v>57</v>
       </c>
@@ -22420,7 +22498,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="31" spans="2:44">
+    <row r="31" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>57</v>
       </c>
@@ -22501,7 +22579,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="32" spans="2:44">
+    <row r="32" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
         <v>57</v>
       </c>
@@ -22582,7 +22660,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="33" spans="2:44">
+    <row r="33" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>57</v>
       </c>
@@ -22663,7 +22741,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="34" spans="2:44">
+    <row r="34" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>57</v>
       </c>
@@ -22744,7 +22822,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="35" spans="2:44">
+    <row r="35" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>57</v>
       </c>
@@ -22825,7 +22903,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="36" spans="2:44">
+    <row r="36" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
         <v>57</v>
       </c>
@@ -22906,7 +22984,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="37" spans="2:44">
+    <row r="37" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
         <v>57</v>
       </c>
@@ -22987,7 +23065,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="38" spans="2:44">
+    <row r="38" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
         <v>57</v>
       </c>
@@ -23068,7 +23146,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="39" spans="2:44">
+    <row r="39" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>57</v>
       </c>
@@ -23149,7 +23227,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="40" spans="2:44">
+    <row r="40" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>57</v>
       </c>
@@ -23230,7 +23308,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="41" spans="2:44">
+    <row r="41" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>57</v>
       </c>
@@ -23311,7 +23389,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="42" spans="2:44">
+    <row r="42" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>57</v>
       </c>
@@ -23392,7 +23470,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="43" spans="2:44">
+    <row r="43" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>57</v>
       </c>
@@ -23473,7 +23551,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="44" spans="2:44">
+    <row r="44" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>57</v>
       </c>
@@ -23554,7 +23632,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="45" spans="2:44">
+    <row r="45" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>79</v>
       </c>
@@ -23625,7 +23703,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="46" spans="2:44">
+    <row r="46" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>79</v>
       </c>
@@ -23696,7 +23774,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="47" spans="2:44">
+    <row r="47" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>79</v>
       </c>
@@ -23767,7 +23845,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="48" spans="2:44">
+    <row r="48" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
         <v>79</v>
       </c>
@@ -23838,7 +23916,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="49" spans="2:44">
+    <row r="49" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
         <v>79</v>
       </c>
@@ -23908,7 +23986,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="50" spans="2:44">
+    <row r="50" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>79</v>
       </c>
@@ -23979,7 +24057,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="51" spans="2:44">
+    <row r="51" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
         <v>79</v>
       </c>
@@ -24050,7 +24128,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="52" spans="2:44">
+    <row r="52" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
         <v>79</v>
       </c>
@@ -24121,7 +24199,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="53" spans="2:44">
+    <row r="53" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="9" t="s">
         <v>79</v>
       </c>
@@ -24192,7 +24270,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="54" spans="2:44">
+    <row r="54" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
         <v>79</v>
       </c>
@@ -24263,7 +24341,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="55" spans="2:44">
+    <row r="55" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B55" s="9" t="s">
         <v>79</v>
       </c>
@@ -24334,7 +24412,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="56" spans="2:44">
+    <row r="56" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B56" s="9" t="s">
         <v>79</v>
       </c>
@@ -24405,7 +24483,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="57" spans="2:44">
+    <row r="57" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
         <v>79</v>
       </c>
@@ -24476,7 +24554,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="58" spans="2:44">
+    <row r="58" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>79</v>
       </c>
@@ -24547,7 +24625,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="59" spans="2:44">
+    <row r="59" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
         <v>97</v>
       </c>
@@ -24618,7 +24696,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="60" spans="2:44">
+    <row r="60" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B60" s="9" t="s">
         <v>97</v>
       </c>
@@ -24689,7 +24767,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="61" spans="2:44">
+    <row r="61" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
         <v>97</v>
       </c>
@@ -24760,7 +24838,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="62" spans="2:44">
+    <row r="62" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
         <v>97</v>
       </c>
@@ -24831,7 +24909,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="63" spans="2:44">
+    <row r="63" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
         <v>97</v>
       </c>
@@ -24902,7 +24980,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="64" spans="2:44">
+    <row r="64" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B64" s="9" t="s">
         <v>97</v>
       </c>
@@ -24973,7 +25051,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="65" spans="2:44">
+    <row r="65" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B65" s="9" t="s">
         <v>97</v>
       </c>
@@ -25044,7 +25122,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="66" spans="2:44">
+    <row r="66" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>97</v>
       </c>
@@ -25115,7 +25193,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="67" spans="2:44">
+    <row r="67" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="9" t="s">
         <v>97</v>
       </c>
@@ -25186,7 +25264,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="68" spans="2:44">
+    <row r="68" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
         <v>97</v>
       </c>
@@ -25257,7 +25335,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="69" spans="2:44">
+    <row r="69" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
         <v>97</v>
       </c>
@@ -25328,7 +25406,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="70" spans="2:44">
+    <row r="70" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>97</v>
       </c>
@@ -25399,7 +25477,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="71" spans="2:44">
+    <row r="71" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="154"/>
       <c r="D71" s="10"/>
@@ -25444,7 +25522,7 @@
       <c r="AQ71" s="28"/>
       <c r="AR71" s="28"/>
     </row>
-    <row r="72" spans="2:44">
+    <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="154"/>
       <c r="D72" s="10"/>
@@ -25489,7 +25567,7 @@
       <c r="AQ72" s="28"/>
       <c r="AR72" s="28"/>
     </row>
-    <row r="73" spans="2:44">
+    <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="154"/>
       <c r="D73" s="10"/>
@@ -25534,7 +25612,7 @@
       <c r="AQ73" s="28"/>
       <c r="AR73" s="28"/>
     </row>
-    <row r="74" spans="2:44">
+    <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="154"/>
       <c r="D74" s="10"/>
@@ -25579,7 +25657,7 @@
       <c r="AQ74" s="28"/>
       <c r="AR74" s="28"/>
     </row>
-    <row r="75" spans="2:44">
+    <row r="75" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="154"/>
       <c r="D75" s="10"/>
@@ -25624,7 +25702,7 @@
       <c r="AQ75" s="28"/>
       <c r="AR75" s="28"/>
     </row>
-    <row r="76" spans="2:44">
+    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="154"/>
       <c r="D76" s="10"/>
@@ -25663,7 +25741,7 @@
       <c r="AQ76" s="28"/>
       <c r="AR76" s="28"/>
     </row>
-    <row r="77" spans="2:44">
+    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="154"/>
       <c r="D77" s="10"/>
@@ -25708,7 +25786,7 @@
       <c r="AQ77" s="28"/>
       <c r="AR77" s="28"/>
     </row>
-    <row r="78" spans="2:44">
+    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="154"/>
       <c r="D78" s="10"/>
@@ -25753,7 +25831,7 @@
       <c r="AQ78" s="28"/>
       <c r="AR78" s="28"/>
     </row>
-    <row r="79" spans="2:44">
+    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="154"/>
       <c r="D79" s="10"/>
@@ -25798,7 +25876,7 @@
       <c r="AQ79" s="28"/>
       <c r="AR79" s="28"/>
     </row>
-    <row r="80" spans="2:44">
+    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="154"/>
       <c r="D80" s="10"/>
@@ -25843,7 +25921,7 @@
       <c r="AQ80" s="28"/>
       <c r="AR80" s="28"/>
     </row>
-    <row r="81" spans="2:44">
+    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="154"/>
       <c r="D81" s="10"/>
@@ -25888,7 +25966,7 @@
       <c r="AQ81" s="28"/>
       <c r="AR81" s="28"/>
     </row>
-    <row r="82" spans="2:44">
+    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="154"/>
       <c r="D82" s="10"/>
@@ -25933,7 +26011,7 @@
       <c r="AQ82" s="28"/>
       <c r="AR82" s="28"/>
     </row>
-    <row r="83" spans="2:44">
+    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="154"/>
       <c r="D83" s="10"/>
@@ -25978,7 +26056,7 @@
       <c r="AQ83" s="28"/>
       <c r="AR83" s="28"/>
     </row>
-    <row r="84" spans="2:44">
+    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="154"/>
       <c r="D84" s="10"/>
@@ -26023,7 +26101,7 @@
       <c r="AQ84" s="28"/>
       <c r="AR84" s="28"/>
     </row>
-    <row r="85" spans="2:44">
+    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="154"/>
       <c r="D85" s="10"/>
@@ -26068,7 +26146,7 @@
       <c r="AQ85" s="28"/>
       <c r="AR85" s="28"/>
     </row>
-    <row r="86" spans="2:44">
+    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="154"/>
       <c r="D86" s="10"/>
@@ -26113,7 +26191,7 @@
       <c r="AQ86" s="28"/>
       <c r="AR86" s="28"/>
     </row>
-    <row r="87" spans="2:44">
+    <row r="87" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="154"/>
       <c r="D87" s="10"/>
@@ -26158,7 +26236,7 @@
       <c r="AQ87" s="28"/>
       <c r="AR87" s="28"/>
     </row>
-    <row r="88" spans="2:44">
+    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="154"/>
       <c r="D88" s="10"/>
@@ -26203,7 +26281,7 @@
       <c r="AQ88" s="28"/>
       <c r="AR88" s="28"/>
     </row>
-    <row r="89" spans="2:44">
+    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="154"/>
       <c r="D89" s="10"/>
@@ -26248,7 +26326,7 @@
       <c r="AQ89" s="28"/>
       <c r="AR89" s="28"/>
     </row>
-    <row r="90" spans="2:44">
+    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="154"/>
       <c r="D90" s="10"/>
@@ -26293,7 +26371,7 @@
       <c r="AQ90" s="28"/>
       <c r="AR90" s="28"/>
     </row>
-    <row r="91" spans="2:44">
+    <row r="91" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="154"/>
       <c r="D91" s="10"/>
@@ -26338,7 +26416,7 @@
       <c r="AQ91" s="28"/>
       <c r="AR91" s="28"/>
     </row>
-    <row r="92" spans="2:44">
+    <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="154"/>
       <c r="D92" s="10"/>
@@ -26383,7 +26461,7 @@
       <c r="AQ92" s="28"/>
       <c r="AR92" s="28"/>
     </row>
-    <row r="93" spans="2:44">
+    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="154"/>
       <c r="D93" s="10"/>
@@ -26428,7 +26506,7 @@
       <c r="AQ93" s="28"/>
       <c r="AR93" s="28"/>
     </row>
-    <row r="94" spans="2:44">
+    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="154"/>
       <c r="D94" s="10"/>
@@ -26473,7 +26551,7 @@
       <c r="AQ94" s="28"/>
       <c r="AR94" s="28"/>
     </row>
-    <row r="95" spans="2:44" ht="15">
+    <row r="95" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
       <c r="C95" s="154"/>
       <c r="D95" s="10"/>
@@ -26518,7 +26596,7 @@
       <c r="AQ95" s="28"/>
       <c r="AR95" s="28"/>
     </row>
-    <row r="96" spans="2:44" ht="15">
+    <row r="96" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="154"/>
       <c r="D96" s="10"/>
@@ -26563,7 +26641,7 @@
       <c r="AQ96" s="28"/>
       <c r="AR96" s="28"/>
     </row>
-    <row r="97" spans="2:44">
+    <row r="97" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="154"/>
       <c r="D97" s="10"/>
@@ -26608,7 +26686,7 @@
       <c r="AQ97" s="28"/>
       <c r="AR97" s="28"/>
     </row>
-    <row r="98" spans="2:44">
+    <row r="98" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="154"/>
       <c r="D98" s="10"/>
@@ -26653,7 +26731,7 @@
       <c r="AQ98" s="28"/>
       <c r="AR98" s="28"/>
     </row>
-    <row r="99" spans="2:44">
+    <row r="99" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="154"/>
       <c r="D99" s="10"/>
@@ -26698,7 +26776,7 @@
       <c r="AQ99" s="28"/>
       <c r="AR99" s="28"/>
     </row>
-    <row r="100" spans="2:44">
+    <row r="100" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="154"/>
       <c r="D100" s="10"/>
@@ -26743,7 +26821,7 @@
       <c r="AQ100" s="28"/>
       <c r="AR100" s="28"/>
     </row>
-    <row r="101" spans="2:44" ht="45.75" customHeight="1">
+    <row r="101" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="154"/>
       <c r="D101" s="10"/>
@@ -26788,7 +26866,7 @@
       <c r="AQ101" s="28"/>
       <c r="AR101" s="28"/>
     </row>
-    <row r="102" spans="2:44">
+    <row r="102" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="154"/>
       <c r="D102" s="10"/>
@@ -26833,7 +26911,7 @@
       <c r="AQ102" s="28"/>
       <c r="AR102" s="28"/>
     </row>
-    <row r="103" spans="2:44">
+    <row r="103" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="154"/>
       <c r="D103" s="10"/>
@@ -26878,7 +26956,7 @@
       <c r="AQ103" s="28"/>
       <c r="AR103" s="28"/>
     </row>
-    <row r="104" spans="2:44">
+    <row r="104" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="154"/>
       <c r="D104" s="10"/>
@@ -26923,7 +27001,7 @@
       <c r="AQ104" s="28"/>
       <c r="AR104" s="28"/>
     </row>
-    <row r="105" spans="2:44">
+    <row r="105" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="154"/>
       <c r="D105" s="10"/>
@@ -26968,7 +27046,7 @@
       <c r="AQ105" s="28"/>
       <c r="AR105" s="28"/>
     </row>
-    <row r="106" spans="2:44">
+    <row r="106" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="154"/>
       <c r="D106" s="10"/>
@@ -27013,7 +27091,7 @@
       <c r="AQ106" s="28"/>
       <c r="AR106" s="28"/>
     </row>
-    <row r="107" spans="2:44">
+    <row r="107" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="154"/>
       <c r="D107" s="10"/>
@@ -27058,7 +27136,7 @@
       <c r="AQ107" s="28"/>
       <c r="AR107" s="28"/>
     </row>
-    <row r="108" spans="2:44">
+    <row r="108" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="154"/>
       <c r="D108" s="10"/>
@@ -27103,7 +27181,7 @@
       <c r="AQ108" s="28"/>
       <c r="AR108" s="28"/>
     </row>
-    <row r="109" spans="2:44" ht="12.75" customHeight="1">
+    <row r="109" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="154"/>
       <c r="D109" s="10"/>
@@ -27148,7 +27226,7 @@
       <c r="AQ109" s="28"/>
       <c r="AR109" s="28"/>
     </row>
-    <row r="110" spans="2:44" ht="12.75" customHeight="1">
+    <row r="110" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="154"/>
       <c r="D110" s="10"/>
@@ -27193,7 +27271,7 @@
       <c r="AQ110" s="28"/>
       <c r="AR110" s="28"/>
     </row>
-    <row r="111" spans="2:44" ht="12.75" customHeight="1">
+    <row r="111" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="154"/>
       <c r="D111" s="10"/>
@@ -27238,7 +27316,7 @@
       <c r="AQ111" s="28"/>
       <c r="AR111" s="28"/>
     </row>
-    <row r="112" spans="2:44" ht="28.5" customHeight="1">
+    <row r="112" spans="2:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="154"/>
       <c r="D112" s="10"/>
@@ -27283,7 +27361,7 @@
       <c r="AQ112" s="28"/>
       <c r="AR112" s="28"/>
     </row>
-    <row r="113" spans="2:70" ht="12.75" customHeight="1">
+    <row r="113" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="154"/>
       <c r="D113" s="10"/>
@@ -27328,7 +27406,7 @@
       <c r="AQ113" s="28"/>
       <c r="AR113" s="28"/>
     </row>
-    <row r="114" spans="2:70" ht="12.75" customHeight="1">
+    <row r="114" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="154"/>
       <c r="D114" s="10"/>
@@ -27373,7 +27451,7 @@
       <c r="AQ114" s="28"/>
       <c r="AR114" s="28"/>
     </row>
-    <row r="115" spans="2:70" ht="12.75" customHeight="1">
+    <row r="115" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="154"/>
       <c r="D115" s="10"/>
@@ -27418,7 +27496,7 @@
       <c r="AQ115" s="28"/>
       <c r="AR115" s="28"/>
     </row>
-    <row r="116" spans="2:70" ht="12.75" customHeight="1">
+    <row r="116" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="154"/>
       <c r="D116" s="10"/>
@@ -27463,7 +27541,7 @@
       <c r="AQ116" s="28"/>
       <c r="AR116" s="28"/>
     </row>
-    <row r="117" spans="2:70" ht="12.75" customHeight="1">
+    <row r="117" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="154"/>
       <c r="D117" s="10"/>
@@ -27508,7 +27586,7 @@
       <c r="AQ117" s="28"/>
       <c r="AR117" s="28"/>
     </row>
-    <row r="118" spans="2:70" ht="12.75" customHeight="1">
+    <row r="118" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="154"/>
       <c r="D118" s="10"/>
@@ -27553,7 +27631,7 @@
       <c r="AQ118" s="28"/>
       <c r="AR118" s="28"/>
     </row>
-    <row r="119" spans="2:70" ht="12.75" customHeight="1">
+    <row r="119" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="154"/>
       <c r="D119" s="10"/>
@@ -27598,7 +27676,7 @@
       <c r="AQ119" s="28"/>
       <c r="AR119" s="28"/>
     </row>
-    <row r="120" spans="2:70" ht="12.75" customHeight="1">
+    <row r="120" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="154"/>
       <c r="D120" s="10"/>
@@ -27643,7 +27721,7 @@
       <c r="AQ120" s="28"/>
       <c r="AR120" s="28"/>
     </row>
-    <row r="121" spans="2:70" ht="42.75" customHeight="1">
+    <row r="121" spans="2:70" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="154"/>
       <c r="D121" s="10"/>
@@ -27688,7 +27766,7 @@
       <c r="AQ121" s="28"/>
       <c r="AR121" s="28"/>
     </row>
-    <row r="122" spans="2:70" ht="12.75" customHeight="1">
+    <row r="122" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="154"/>
       <c r="D122" s="10"/>
@@ -27733,7 +27811,7 @@
       <c r="AQ122" s="28"/>
       <c r="AR122" s="28"/>
     </row>
-    <row r="123" spans="2:70" ht="12.75" customHeight="1">
+    <row r="123" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="154"/>
       <c r="D123" s="10"/>
@@ -27804,7 +27882,7 @@
       <c r="BQ123" s="103"/>
       <c r="BR123" s="103"/>
     </row>
-    <row r="124" spans="2:70" ht="12.75" customHeight="1">
+    <row r="124" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="154"/>
       <c r="D124" s="10"/>
@@ -27849,7 +27927,7 @@
       <c r="AQ124" s="28"/>
       <c r="AR124" s="28"/>
     </row>
-    <row r="125" spans="2:70" ht="12.75" customHeight="1">
+    <row r="125" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="154"/>
       <c r="D125" s="10"/>
@@ -27894,7 +27972,7 @@
       <c r="AQ125" s="28"/>
       <c r="AR125" s="28"/>
     </row>
-    <row r="126" spans="2:70" ht="12.75" customHeight="1">
+    <row r="126" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="154"/>
       <c r="D126" s="10"/>
@@ -27939,7 +28017,7 @@
       <c r="AQ126" s="28"/>
       <c r="AR126" s="28"/>
     </row>
-    <row r="127" spans="2:70" ht="12.75" customHeight="1">
+    <row r="127" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="154"/>
       <c r="D127" s="10"/>
@@ -27984,7 +28062,7 @@
       <c r="AQ127" s="28"/>
       <c r="AR127" s="28"/>
     </row>
-    <row r="128" spans="2:70" ht="12.75" customHeight="1">
+    <row r="128" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="154"/>
       <c r="D128" s="10"/>
@@ -28029,7 +28107,7 @@
       <c r="AQ128" s="28"/>
       <c r="AR128" s="28"/>
     </row>
-    <row r="129" spans="2:44" ht="12.75" customHeight="1">
+    <row r="129" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="154"/>
       <c r="D129" s="10"/>
@@ -28074,7 +28152,7 @@
       <c r="AQ129" s="28"/>
       <c r="AR129" s="28"/>
     </row>
-    <row r="130" spans="2:44" ht="27" customHeight="1">
+    <row r="130" spans="2:44" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="154"/>
       <c r="D130" s="10"/>
@@ -28119,7 +28197,7 @@
       <c r="AQ130" s="28"/>
       <c r="AR130" s="28"/>
     </row>
-    <row r="131" spans="2:44" ht="12.75" customHeight="1">
+    <row r="131" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="154"/>
       <c r="D131" s="10"/>
@@ -28164,7 +28242,7 @@
       <c r="AQ131" s="28"/>
       <c r="AR131" s="28"/>
     </row>
-    <row r="132" spans="2:44" ht="12.75" customHeight="1">
+    <row r="132" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="154"/>
       <c r="D132" s="10"/>
@@ -28209,7 +28287,7 @@
       <c r="AQ132" s="28"/>
       <c r="AR132" s="28"/>
     </row>
-    <row r="133" spans="2:44" ht="12.75" customHeight="1">
+    <row r="133" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="154"/>
       <c r="D133" s="10"/>
@@ -28254,7 +28332,7 @@
       <c r="AQ133" s="28"/>
       <c r="AR133" s="28"/>
     </row>
-    <row r="134" spans="2:44" ht="12.75" customHeight="1">
+    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="154"/>
       <c r="D134" s="10"/>
@@ -28299,7 +28377,7 @@
       <c r="AQ134" s="28"/>
       <c r="AR134" s="28"/>
     </row>
-    <row r="135" spans="2:44" ht="12.75" customHeight="1">
+    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="154"/>
       <c r="D135" s="10"/>
@@ -28344,7 +28422,7 @@
       <c r="AQ135" s="28"/>
       <c r="AR135" s="28"/>
     </row>
-    <row r="136" spans="2:44" ht="12.75" customHeight="1">
+    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="154"/>
       <c r="D136" s="10"/>
@@ -28389,7 +28467,7 @@
       <c r="AQ136" s="28"/>
       <c r="AR136" s="28"/>
     </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1">
+    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="154"/>
       <c r="D137" s="10"/>
@@ -28434,7 +28512,7 @@
       <c r="AQ137" s="28"/>
       <c r="AR137" s="28"/>
     </row>
-    <row r="138" spans="2:44" ht="12.75" customHeight="1">
+    <row r="138" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="154"/>
       <c r="D138" s="10"/>
@@ -28479,7 +28557,7 @@
       <c r="AQ138" s="28"/>
       <c r="AR138" s="28"/>
     </row>
-    <row r="139" spans="2:44" ht="12.75" customHeight="1">
+    <row r="139" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="154"/>
       <c r="D139" s="10"/>
@@ -28524,7 +28602,7 @@
       <c r="AQ139" s="28"/>
       <c r="AR139" s="28"/>
     </row>
-    <row r="140" spans="2:44" ht="12.75" customHeight="1">
+    <row r="140" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="154"/>
       <c r="D140" s="10"/>
@@ -28569,7 +28647,7 @@
       <c r="AQ140" s="28"/>
       <c r="AR140" s="28"/>
     </row>
-    <row r="141" spans="2:44" ht="12.75" customHeight="1">
+    <row r="141" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="154"/>
       <c r="D141" s="10"/>
@@ -28614,7 +28692,7 @@
       <c r="AQ141" s="28"/>
       <c r="AR141" s="28"/>
     </row>
-    <row r="142" spans="2:44" ht="12.75" customHeight="1">
+    <row r="142" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="154"/>
       <c r="D142" s="10"/>
@@ -28659,7 +28737,7 @@
       <c r="AQ142" s="28"/>
       <c r="AR142" s="28"/>
     </row>
-    <row r="143" spans="2:44" ht="45.75" customHeight="1">
+    <row r="143" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="154"/>
       <c r="D143" s="10"/>
@@ -28704,7 +28782,7 @@
       <c r="AQ143" s="28"/>
       <c r="AR143" s="28"/>
     </row>
-    <row r="144" spans="2:44" ht="12.75" customHeight="1">
+    <row r="144" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="154"/>
       <c r="D144" s="10"/>
@@ -28749,7 +28827,7 @@
       <c r="AQ144" s="28"/>
       <c r="AR144" s="28"/>
     </row>
-    <row r="145" spans="2:44" ht="12.75" customHeight="1">
+    <row r="145" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="154"/>
       <c r="D145" s="10"/>
@@ -28794,7 +28872,7 @@
       <c r="AQ145" s="28"/>
       <c r="AR145" s="28"/>
     </row>
-    <row r="146" spans="2:44" ht="48" customHeight="1">
+    <row r="146" spans="2:44" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="154"/>
       <c r="D146" s="10"/>
@@ -28839,7 +28917,7 @@
       <c r="AQ146" s="28"/>
       <c r="AR146" s="28"/>
     </row>
-    <row r="147" spans="2:44" ht="19.5" customHeight="1">
+    <row r="147" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="154"/>
       <c r="D147" s="10"/>
@@ -28884,7 +28962,7 @@
       <c r="AQ147" s="28"/>
       <c r="AR147" s="28"/>
     </row>
-    <row r="148" spans="2:44" ht="12.75" customHeight="1">
+    <row r="148" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="154"/>
       <c r="D148" s="10"/>
@@ -28929,7 +29007,7 @@
       <c r="AQ148" s="28"/>
       <c r="AR148" s="28"/>
     </row>
-    <row r="149" spans="2:44" ht="12.75" customHeight="1">
+    <row r="149" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="154"/>
       <c r="D149" s="10"/>
@@ -28974,7 +29052,7 @@
       <c r="AQ149" s="28"/>
       <c r="AR149" s="28"/>
     </row>
-    <row r="150" spans="2:44" ht="12.75" customHeight="1">
+    <row r="150" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="154"/>
       <c r="D150" s="10"/>
@@ -29019,7 +29097,7 @@
       <c r="AQ150" s="28"/>
       <c r="AR150" s="28"/>
     </row>
-    <row r="151" spans="2:44" ht="12.75" customHeight="1">
+    <row r="151" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="154"/>
       <c r="D151" s="10"/>
@@ -29064,7 +29142,7 @@
       <c r="AQ151" s="28"/>
       <c r="AR151" s="28"/>
     </row>
-    <row r="152" spans="2:44" ht="12.75" customHeight="1">
+    <row r="152" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="154"/>
       <c r="D152" s="10"/>
@@ -29109,7 +29187,7 @@
       <c r="AQ152" s="28"/>
       <c r="AR152" s="28"/>
     </row>
-    <row r="153" spans="2:44" ht="12.75" customHeight="1">
+    <row r="153" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="154"/>
       <c r="D153" s="10"/>
@@ -29154,7 +29232,7 @@
       <c r="AQ153" s="28"/>
       <c r="AR153" s="28"/>
     </row>
-    <row r="154" spans="2:44" ht="12.75" customHeight="1">
+    <row r="154" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="154"/>
       <c r="D154" s="10"/>
@@ -29199,7 +29277,7 @@
       <c r="AQ154" s="28"/>
       <c r="AR154" s="28"/>
     </row>
-    <row r="155" spans="2:44" ht="12.75" customHeight="1">
+    <row r="155" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="154"/>
       <c r="D155" s="10"/>
@@ -29244,7 +29322,7 @@
       <c r="AQ155" s="28"/>
       <c r="AR155" s="28"/>
     </row>
-    <row r="156" spans="2:44" ht="12.75" customHeight="1">
+    <row r="156" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="154"/>
       <c r="D156" s="10"/>
@@ -29289,7 +29367,7 @@
       <c r="AQ156" s="28"/>
       <c r="AR156" s="28"/>
     </row>
-    <row r="157" spans="2:44" ht="12.75" customHeight="1">
+    <row r="157" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="154"/>
       <c r="D157" s="10"/>
@@ -29334,7 +29412,7 @@
       <c r="AQ157" s="28"/>
       <c r="AR157" s="28"/>
     </row>
-    <row r="158" spans="2:44" ht="12.75" customHeight="1">
+    <row r="158" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="154"/>
       <c r="D158" s="10"/>
@@ -29379,7 +29457,7 @@
       <c r="AQ158" s="28"/>
       <c r="AR158" s="28"/>
     </row>
-    <row r="159" spans="2:44" ht="12.75" customHeight="1">
+    <row r="159" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="154"/>
       <c r="D159" s="10"/>
@@ -29424,7 +29502,7 @@
       <c r="AQ159" s="28"/>
       <c r="AR159" s="28"/>
     </row>
-    <row r="160" spans="2:44" ht="12.75" customHeight="1">
+    <row r="160" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="154"/>
       <c r="D160" s="10"/>
@@ -29469,7 +29547,7 @@
       <c r="AQ160" s="28"/>
       <c r="AR160" s="28"/>
     </row>
-    <row r="161" spans="2:44" ht="12.75" customHeight="1">
+    <row r="161" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="154"/>
       <c r="D161" s="10"/>
@@ -29514,7 +29592,7 @@
       <c r="AQ161" s="28"/>
       <c r="AR161" s="28"/>
     </row>
-    <row r="162" spans="2:44" ht="12.75" customHeight="1">
+    <row r="162" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="154"/>
       <c r="D162" s="10"/>
@@ -29559,7 +29637,7 @@
       <c r="AQ162" s="28"/>
       <c r="AR162" s="28"/>
     </row>
-    <row r="163" spans="2:44" ht="12.75" customHeight="1">
+    <row r="163" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="154"/>
       <c r="D163" s="10"/>
@@ -29604,7 +29682,7 @@
       <c r="AQ163" s="28"/>
       <c r="AR163" s="28"/>
     </row>
-    <row r="164" spans="2:44" ht="12.75" customHeight="1">
+    <row r="164" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="154"/>
       <c r="D164" s="10"/>
@@ -29649,7 +29727,7 @@
       <c r="AQ164" s="28"/>
       <c r="AR164" s="28"/>
     </row>
-    <row r="165" spans="2:44" ht="12.75" customHeight="1">
+    <row r="165" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="154"/>
       <c r="D165" s="10"/>
@@ -29694,7 +29772,7 @@
       <c r="AQ165" s="28"/>
       <c r="AR165" s="28"/>
     </row>
-    <row r="166" spans="2:44" ht="12.75" customHeight="1">
+    <row r="166" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="154"/>
       <c r="D166" s="10"/>
@@ -29739,7 +29817,7 @@
       <c r="AQ166" s="28"/>
       <c r="AR166" s="28"/>
     </row>
-    <row r="167" spans="2:44" ht="12.75" customHeight="1">
+    <row r="167" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="154"/>
       <c r="D167" s="10"/>
@@ -29784,7 +29862,7 @@
       <c r="AQ167" s="28"/>
       <c r="AR167" s="28"/>
     </row>
-    <row r="168" spans="2:44" ht="12.75" customHeight="1">
+    <row r="168" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="154"/>
       <c r="D168" s="10"/>
@@ -29829,7 +29907,7 @@
       <c r="AQ168" s="28"/>
       <c r="AR168" s="28"/>
     </row>
-    <row r="169" spans="2:44" ht="12.75" customHeight="1">
+    <row r="169" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="154"/>
       <c r="D169" s="10"/>
@@ -29874,7 +29952,7 @@
       <c r="AQ169" s="28"/>
       <c r="AR169" s="28"/>
     </row>
-    <row r="170" spans="2:44" ht="12.75" customHeight="1">
+    <row r="170" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="154"/>
       <c r="D170" s="10"/>
@@ -29919,7 +29997,7 @@
       <c r="AQ170" s="28"/>
       <c r="AR170" s="28"/>
     </row>
-    <row r="171" spans="2:44" ht="12.75" customHeight="1">
+    <row r="171" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="154"/>
       <c r="D171" s="10"/>
@@ -29964,7 +30042,7 @@
       <c r="AQ171" s="28"/>
       <c r="AR171" s="28"/>
     </row>
-    <row r="172" spans="2:44" ht="12.75" customHeight="1">
+    <row r="172" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
       <c r="C172" s="154"/>
       <c r="D172" s="10"/>
@@ -30009,7 +30087,7 @@
       <c r="AQ172" s="28"/>
       <c r="AR172" s="28"/>
     </row>
-    <row r="173" spans="2:44" ht="12.75" customHeight="1">
+    <row r="173" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
       <c r="C173" s="154"/>
       <c r="D173" s="10"/>
@@ -30054,7 +30132,7 @@
       <c r="AQ173" s="28"/>
       <c r="AR173" s="28"/>
     </row>
-    <row r="174" spans="2:44" ht="12.75" customHeight="1">
+    <row r="174" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
       <c r="C174" s="154"/>
       <c r="D174" s="10"/>
@@ -30099,7 +30177,7 @@
       <c r="AQ174" s="28"/>
       <c r="AR174" s="28"/>
     </row>
-    <row r="175" spans="2:44" ht="12.75" customHeight="1">
+    <row r="175" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="9"/>
       <c r="C175" s="154"/>
       <c r="D175" s="10"/>
@@ -30144,7 +30222,7 @@
       <c r="AQ175" s="28"/>
       <c r="AR175" s="28"/>
     </row>
-    <row r="176" spans="2:44" ht="12.75" customHeight="1">
+    <row r="176" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
       <c r="C176" s="154"/>
       <c r="D176" s="10"/>
@@ -30189,7 +30267,7 @@
       <c r="AQ176" s="28"/>
       <c r="AR176" s="28"/>
     </row>
-    <row r="177" spans="2:44" ht="12.75" customHeight="1">
+    <row r="177" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="154"/>
       <c r="D177" s="10"/>
@@ -30234,7 +30312,7 @@
       <c r="AQ177" s="28"/>
       <c r="AR177" s="28"/>
     </row>
-    <row r="178" spans="2:44" ht="12.75" customHeight="1">
+    <row r="178" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
       <c r="C178" s="154"/>
       <c r="D178" s="10"/>
@@ -30279,75 +30357,75 @@
       <c r="AQ178" s="28"/>
       <c r="AR178" s="28"/>
     </row>
-    <row r="179" spans="2:44" ht="12.75" customHeight="1">
+    <row r="179" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ179" s="28"/>
       <c r="AR179" s="28"/>
     </row>
-    <row r="180" spans="2:44" ht="12.75" customHeight="1">
+    <row r="180" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ180" s="28"/>
       <c r="AR180" s="28"/>
     </row>
-    <row r="181" spans="2:44" ht="12.75" customHeight="1">
+    <row r="181" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ181" s="28"/>
       <c r="AR181" s="28"/>
     </row>
-    <row r="182" spans="2:44" ht="12.75" customHeight="1">
+    <row r="182" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ182" s="28"/>
       <c r="AR182" s="28"/>
     </row>
-    <row r="183" spans="2:44" ht="12.75" customHeight="1">
+    <row r="183" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ183" s="28"/>
       <c r="AR183" s="28"/>
     </row>
-    <row r="184" spans="2:44" ht="12.75" customHeight="1">
+    <row r="184" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ184" s="28"/>
       <c r="AR184" s="28"/>
     </row>
-    <row r="185" spans="2:44" ht="12.75" customHeight="1">
+    <row r="185" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ185" s="28"/>
       <c r="AR185" s="28"/>
     </row>
-    <row r="186" spans="2:44" ht="12.75" customHeight="1">
+    <row r="186" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ186" s="28"/>
       <c r="AR186" s="28"/>
     </row>
-    <row r="187" spans="2:44" ht="12.75" customHeight="1">
+    <row r="187" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ187" s="28"/>
       <c r="AR187" s="28"/>
     </row>
-    <row r="188" spans="2:44" ht="12.75" customHeight="1">
+    <row r="188" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ188" s="28"/>
       <c r="AR188" s="28"/>
     </row>
-    <row r="189" spans="2:44" ht="12.75" customHeight="1">
+    <row r="189" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ189" s="28"/>
       <c r="AR189" s="28"/>
     </row>
-    <row r="190" spans="2:44" ht="12.75" customHeight="1">
+    <row r="190" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ190" s="28"/>
       <c r="AR190" s="28"/>
     </row>
-    <row r="191" spans="2:44" ht="12.75" customHeight="1">
+    <row r="191" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ191" s="28"/>
       <c r="AR191" s="28"/>
     </row>
-    <row r="192" spans="2:44" ht="12.75" customHeight="1">
+    <row r="192" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ192" s="28"/>
       <c r="AR192" s="28"/>
     </row>
-    <row r="193" spans="43:44" ht="12.75" customHeight="1">
+    <row r="193" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ193" s="28"/>
       <c r="AR193" s="28"/>
     </row>
-    <row r="194" spans="43:44" ht="12.75" customHeight="1">
+    <row r="194" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ194" s="28"/>
       <c r="AR194" s="28"/>
     </row>
-    <row r="195" spans="43:44" ht="12.75" customHeight="1">
+    <row r="195" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ195" s="28"/>
       <c r="AR195" s="28"/>
     </row>
-    <row r="196" spans="43:44" ht="12.75" customHeight="1">
+    <row r="196" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ196" s="28"/>
       <c r="AR196" s="28"/>
     </row>
@@ -30465,77 +30543,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="92" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="92" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>10</v>
       </c>
@@ -30553,25 +30631,25 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="12" width="37.28515625" customWidth="1"/>
+    <col min="3" max="12" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
-      <c r="E3" s="168" t="s">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E3" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
     </row>
-    <row r="5" spans="3:12" ht="18.75">
-      <c r="J5" s="169" t="s">
+    <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J5" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="170"/>
+      <c r="K5" s="161"/>
     </row>
-    <row r="6" spans="3:12" ht="19.5" thickBot="1">
+    <row r="6" spans="3:12" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="30" t="s">
         <v>119</v>
       </c>
@@ -30603,153 +30681,153 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="15" customHeight="1">
-      <c r="C7" s="171" t="s">
+    <row r="7" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="173" t="s">
+      <c r="D7" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165" t="s">
+      <c r="G7" s="164"/>
+      <c r="H7" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
     </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="172"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C8" s="163"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
     </row>
-    <row r="9" spans="3:12" ht="29.25" customHeight="1">
-      <c r="C9" s="172"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
+    <row r="9" spans="3:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="163"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
     </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="172"/>
-      <c r="D10" s="165" t="s">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="163"/>
+      <c r="D10" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="165" t="s">
+      <c r="E10" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="165" t="s">
+      <c r="F10" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165" t="s">
+      <c r="G10" s="164"/>
+      <c r="H10" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
       <c r="K10" s="78"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="3:12">
-      <c r="C11" s="172"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="163"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
       <c r="K11" s="78"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="3:12">
-      <c r="C12" s="172"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="163"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="3:12">
-      <c r="C13" s="172"/>
-      <c r="D13" s="176" t="s">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="163"/>
+      <c r="D13" s="170" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="159" t="s">
+      <c r="E13" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="159" t="s">
+      <c r="F13" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="162"/>
-      <c r="H13" s="165" t="s">
+      <c r="G13" s="176"/>
+      <c r="H13" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="3:12">
-      <c r="C14" s="172"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="163"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="172"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="163"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="172"/>
-      <c r="D16" s="162" t="s">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="163"/>
+      <c r="D16" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="162" t="s">
+      <c r="E16" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="173" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="162"/>
-      <c r="H16" s="159" t="s">
+      <c r="G16" s="176"/>
+      <c r="H16" s="173" t="s">
         <v>145</v>
       </c>
       <c r="I16" s="19"/>
@@ -30757,20 +30835,20 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="172"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="161"/>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="163"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="175"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="172"/>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="163"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -30781,8 +30859,8 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="172"/>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="163"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -30795,6 +30873,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="J10:J12"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C7:C19"/>
@@ -30811,21 +30904,6 @@
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30835,89 +30913,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED98BEE-9FDE-48A4-86A8-C4DE755C63D7}">
   <dimension ref="B2:BN75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="N2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" customWidth="1"/>
-    <col min="44" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.7109375" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" customWidth="1"/>
-    <col min="48" max="48" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.7109375" customWidth="1"/>
-    <col min="55" max="55" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.7109375" customWidth="1"/>
-    <col min="63" max="63" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.140625" customWidth="1"/>
-    <col min="68" max="68" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.7109375" customWidth="1"/>
-    <col min="71" max="71" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" customWidth="1"/>
+    <col min="15" max="16" width="9.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" customWidth="1"/>
+    <col min="28" max="28" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7265625" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.54296875" customWidth="1"/>
+    <col min="36" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7265625" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.81640625" customWidth="1"/>
+    <col min="44" max="44" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7265625" customWidth="1"/>
+    <col min="47" max="47" width="19.453125" customWidth="1"/>
+    <col min="48" max="48" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.54296875" customWidth="1"/>
+    <col min="52" max="52" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.7265625" customWidth="1"/>
+    <col min="55" max="55" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.26953125" customWidth="1"/>
+    <col min="60" max="60" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7265625" customWidth="1"/>
+    <col min="63" max="63" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.1796875" customWidth="1"/>
+    <col min="68" max="68" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.7265625" customWidth="1"/>
+    <col min="71" max="71" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="23.25">
+    <row r="2" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="64" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C4" s="22" t="s">
         <v>147</v>
       </c>
@@ -30926,10 +31004,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="17"/>
       <c r="D7" s="20" t="s">
         <v>21</v>
@@ -30948,7 +31026,7 @@
       </c>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="89" t="s">
         <v>152</v>
       </c>
@@ -30973,7 +31051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="152">
         <f>D8/$D$4</f>
         <v>1.015625</v>
@@ -30995,20 +31073,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75">
+    <row r="10" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C10" s="63" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="20" t="s">
         <v>155</v>
       </c>
@@ -31046,7 +31124,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="18" t="s">
         <v>3</v>
       </c>
@@ -31095,7 +31173,7 @@
         <v>0.79268292682926833</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="18" t="s">
         <v>166</v>
       </c>
@@ -31144,7 +31222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="18" t="s">
         <v>167</v>
       </c>
@@ -31193,7 +31271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="18" t="s">
         <v>5</v>
       </c>
@@ -31242,7 +31320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="18" t="s">
         <v>4</v>
       </c>
@@ -31291,7 +31369,7 @@
         <v>0.2073170731707317</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="18" t="s">
         <v>168</v>
       </c>
@@ -31340,7 +31418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="18" t="s">
         <v>169</v>
       </c>
@@ -31389,10 +31467,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C22" s="73" t="s">
         <v>170</v>
       </c>
@@ -31425,12 +31503,12 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="24" spans="3:14" ht="19.5" thickBot="1">
+    <row r="24" spans="3:14" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C24" s="63" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="82" t="s">
         <v>155</v>
       </c>
@@ -31452,7 +31530,7 @@
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="85" t="s">
         <v>3</v>
       </c>
@@ -31473,7 +31551,7 @@
       <c r="J26" s="183"/>
       <c r="K26" s="184"/>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="85" t="s">
         <v>4</v>
       </c>
@@ -31494,7 +31572,7 @@
       <c r="J27" s="183"/>
       <c r="K27" s="184"/>
     </row>
-    <row r="28" spans="3:14" ht="15.75" thickBot="1">
+    <row r="28" spans="3:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="85" t="s">
         <v>5</v>
       </c>
@@ -31515,7 +31593,7 @@
       <c r="J28" s="186"/>
       <c r="K28" s="187"/>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="85" t="s">
         <v>167</v>
       </c>
@@ -31533,7 +31611,7 @@
       </c>
       <c r="H29" s="90"/>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="85" t="s">
         <v>169</v>
       </c>
@@ -31551,7 +31629,7 @@
       </c>
       <c r="H30" s="90"/>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="85" t="s">
         <v>166</v>
       </c>
@@ -31569,7 +31647,7 @@
       </c>
       <c r="H31" s="90"/>
     </row>
-    <row r="32" spans="3:14">
+    <row r="32" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C32" s="87" t="s">
         <v>168</v>
       </c>
@@ -31587,7 +31665,7 @@
       </c>
       <c r="H32" s="90"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C33" s="73" t="s">
         <v>176</v>
       </c>
@@ -31610,42 +31688,42 @@
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="37" spans="2:13" ht="23.25">
+    <row r="37" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="64" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="23.25">
+    <row r="38" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="64"/>
     </row>
-    <row r="39" spans="2:13" ht="23.25">
+    <row r="39" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="64"/>
     </row>
-    <row r="40" spans="2:13" ht="23.25">
+    <row r="40" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="64"/>
     </row>
-    <row r="41" spans="2:13" ht="23.25">
+    <row r="41" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="64"/>
     </row>
-    <row r="42" spans="2:13" ht="23.25">
+    <row r="42" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="64"/>
     </row>
-    <row r="43" spans="2:13" ht="23.25">
+    <row r="43" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="64"/>
     </row>
-    <row r="44" spans="2:13" ht="23.25">
+    <row r="44" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="64"/>
     </row>
-    <row r="45" spans="2:13" ht="23.25">
+    <row r="45" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="64"/>
     </row>
-    <row r="46" spans="2:13" ht="23.25">
+    <row r="46" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="64"/>
     </row>
-    <row r="47" spans="2:13" ht="23.25">
+    <row r="47" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="64"/>
     </row>
-    <row r="49" spans="3:66" ht="14.45" customHeight="1">
+    <row r="49" spans="3:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D49" s="197" t="s">
         <v>178</v>
       </c>
@@ -31726,7 +31804,7 @@
       <c r="BM49" s="195"/>
       <c r="BN49" s="196"/>
     </row>
-    <row r="50" spans="3:66">
+    <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="20" t="s">
         <v>11</v>
       </c>
@@ -31920,7 +31998,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="3:66">
+    <row r="51" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C51" s="18" t="str" cm="1">
         <f t="array" ref="C51:C64">_xlfn.UNIQUE(AdopcionIA!$C$6:$C$507)</f>
         <v>DEPOLIFE 107</v>
@@ -32160,7 +32238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:66">
+    <row r="52" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C52" s="18" t="str">
         <v>DEPOLIFE 106</v>
       </c>
@@ -32399,7 +32477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:66">
+    <row r="53" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C53" s="18" t="str">
         <v>DESACITA 100</v>
       </c>
@@ -32638,7 +32716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:66">
+    <row r="54" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C54" s="18" t="str">
         <v>DESACITA S/P</v>
       </c>
@@ -32877,7 +32955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:66">
+    <row r="55" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C55" s="18" t="str">
         <v>DESACEIN 115</v>
       </c>
@@ -33116,7 +33194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:66">
+    <row r="56" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C56" s="156" t="str">
         <v>DESACEIN 116</v>
       </c>
@@ -33355,7 +33433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:66" ht="15" customHeight="1">
+    <row r="57" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57" s="157" t="str">
         <v>DEDIGRAF 8</v>
       </c>
@@ -33594,7 +33672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:66" ht="15" customHeight="1">
+    <row r="58" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C58" s="157" t="str">
         <v>DEDIGRAF 9</v>
       </c>
@@ -33833,7 +33911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:66">
+    <row r="59" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C59" s="157" t="str">
         <v>DEDIGRAF 10</v>
       </c>
@@ -34072,7 +34150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:66">
+    <row r="60" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C60" s="157" t="str">
         <v>DEPINTRA 108</v>
       </c>
@@ -34311,7 +34389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:66">
+    <row r="61" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C61" s="157" t="str">
         <v>DEPINTRA S/P</v>
       </c>
@@ -34550,7 +34628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:66">
+    <row r="62" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C62" s="157" t="str">
         <v>DEPINTE 102</v>
       </c>
@@ -34789,7 +34867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:66">
+    <row r="63" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C63" s="157" t="str">
         <v>DEPINTE S/P</v>
       </c>
@@ -35028,7 +35106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:66">
+    <row r="64" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C64" s="157">
         <v>0</v>
       </c>
@@ -35267,7 +35345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:66">
+    <row r="65" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C65" s="157"/>
       <c r="D65" s="155">
         <f>SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C65,AdopcionIA!J$6:J$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C65,AdopcionIA!O$6:O$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C65,AdopcionIA!T$6:T$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C65,AdopcionIA!Y$6:Y$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C65,AdopcionIA!AD$6:AD$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C65,AdopcionIA!AI$6:AI$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C65,AdopcionIA!AN$6:AN$507)</f>
@@ -35504,13 +35582,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:66">
+    <row r="66" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C66" s="17"/>
     </row>
-    <row r="68" spans="3:66">
+    <row r="68" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="3:66">
+    <row r="69" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
@@ -35523,32 +35601,32 @@
       <c r="L69" s="29"/>
       <c r="M69" s="29"/>
     </row>
-    <row r="70" spans="3:66">
+    <row r="70" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C70" s="17"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
     </row>
-    <row r="71" spans="3:66">
+    <row r="71" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C71" s="17"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
     </row>
-    <row r="72" spans="3:66">
+    <row r="72" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="17"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
     </row>
-    <row r="73" spans="3:66">
+    <row r="73" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C73" s="17"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
     </row>
-    <row r="74" spans="3:66">
+    <row r="74" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C74" s="17"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
     </row>
-    <row r="75" spans="3:66">
+    <row r="75" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C75" s="17"/>
     </row>
   </sheetData>
@@ -35854,6 +35932,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
@@ -35865,15 +35952,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36078,15 +36156,40 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749E22C5-4A50-411E-A267-99434988BB08}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749E22C5-4A50-411E-A267-99434988BB08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
